--- a/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,2</t>
+          <t>-0,26; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,48</t>
+          <t>-1,22; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,04</t>
+          <t>-1,61; 0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,28</t>
+          <t>-2,21; 0,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,15</t>
+          <t>-2,47; -0,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,94</t>
+          <t>-1,27; 3,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,96</t>
+          <t>-0,77; 0,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,01</t>
+          <t>-1,34; 0,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,7</t>
+          <t>-0,92; 1,67</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,43</t>
+          <t>-100,0; 145,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,62; 743,69</t>
+          <t>-94,36; 787,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 215,92</t>
+          <t>-63,8; 207,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,95</t>
+          <t>-100,0; 73,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,49; 462,63</t>
+          <t>-92,32; 445,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,8</t>
+          <t>-0,97; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,39</t>
+          <t>-1,26; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,45</t>
+          <t>0,16; 5,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,41</t>
+          <t>0,35; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,1</t>
+          <t>-0,81; 1,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,19</t>
+          <t>-0,37; 2,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 1,73</t>
+          <t>-0,01; 1,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,55</t>
+          <t>-0,76; 0,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,5</t>
+          <t>0,16; 2,73</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,02; 263,7</t>
+          <t>-83,06; 315,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 1452,33</t>
+          <t>-19,33; 1215,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1389,94</t>
+          <t>-5,42; 1528,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,41; 747,62</t>
+          <t>-78,95; 808,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,14; 777,3</t>
+          <t>-55,41; 1035,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 428,7</t>
+          <t>-9,0; 454,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 187,83</t>
+          <t>-76,93; 147,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 588,55</t>
+          <t>-2,03; 620,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,57</t>
+          <t>-1,0; 1,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,04</t>
+          <t>-1,14; 0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,78</t>
+          <t>-0,72; 1,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,17</t>
+          <t>-0,24; 2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,82</t>
+          <t>-1,05; 0,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,69</t>
+          <t>-0,31; 1,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,49</t>
+          <t>-0,34; 1,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,68</t>
+          <t>-0,77; 0,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,39</t>
+          <t>-0,2; 1,45</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 678,14</t>
+          <t>-81,2; 495,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,86; 569,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,65; 531,19</t>
+          <t>-74,52; 613,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 612,9</t>
+          <t>-35,62; 753,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,09; 286,24</t>
+          <t>-81,21; 314,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 454,76</t>
+          <t>-34,06; 559,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 352,46</t>
+          <t>-32,09; 320,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 170,71</t>
+          <t>-68,19; 172,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 328,02</t>
+          <t>-23,59; 316,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,15</t>
+          <t>-0,32; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,17</t>
+          <t>-0,64; 2,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,86</t>
+          <t>-0,35; 2,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,28</t>
+          <t>-1,33; 2,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,17</t>
+          <t>-2,61; 0,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,82</t>
+          <t>-1,02; 1,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,13</t>
+          <t>-0,36; 2,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,74</t>
+          <t>-1,34; 0,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,86</t>
+          <t>-0,24; 1,86</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 546,7</t>
+          <t>-30,85; 625,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 347,08</t>
+          <t>-43,09; 394,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 473,75</t>
+          <t>-31,18; 452,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 202,64</t>
+          <t>-47,52; 231,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-86,44; 39,16</t>
+          <t>-84,92; 48,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 159,18</t>
+          <t>-38,66; 192,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 191,79</t>
+          <t>-20,25; 198,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,42; 68,73</t>
+          <t>-58,45; 70,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 179,49</t>
+          <t>-13,12; 178,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,74</t>
+          <t>-3,68; 0,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; -0,17</t>
+          <t>-4,61; -0,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,61</t>
+          <t>-2,03; 2,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,59</t>
+          <t>-1,53; 2,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -0,0</t>
+          <t>-3,33; 0,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,37</t>
+          <t>-0,46; 3,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,19</t>
+          <t>-2,1; 1,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,48</t>
+          <t>-3,14; -0,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,59</t>
+          <t>-0,54; 2,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,47; 46,59</t>
+          <t>-78,03; 48,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-93,08; 16,88</t>
+          <t>-91,51; 13,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,02; 128,76</t>
+          <t>-47,82; 131,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,93; 222,69</t>
+          <t>-51,98; 247,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 75,16</t>
+          <t>-94,74; 49,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 307,04</t>
+          <t>-16,7; 356,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 65,84</t>
+          <t>-57,69; 59,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-86,24; -10,68</t>
+          <t>-87,77; -9,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 144,39</t>
+          <t>-14,69; 147,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,45</t>
+          <t>-2,98; 1,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,42; -0,61</t>
+          <t>-4,21; -0,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,56</t>
+          <t>-2,55; 1,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,89</t>
+          <t>-1,6; 1,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,12</t>
+          <t>-2,34; 1,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,25; 38,55</t>
+          <t>2,37; 34,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,1</t>
+          <t>-1,78; 1,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,2</t>
+          <t>-2,72; -0,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 28,04</t>
+          <t>1,13; 25,47</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 61,32</t>
+          <t>-62,46; 58,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-87,9; -16,59</t>
+          <t>-87,61; -18,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 60,74</t>
+          <t>-49,07; 68,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 88,55</t>
+          <t>-41,23; 97,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 58,41</t>
+          <t>-58,3; 72,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>62,79; 1743,35</t>
+          <t>68,1; 1679,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 42,43</t>
+          <t>-43,25; 44,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-67,38; -3,29</t>
+          <t>-66,57; -7,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>26,28; 1084,05</t>
+          <t>28,97; 831,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,76</t>
+          <t>-0,48; 0,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,04</t>
+          <t>-1,12; 0,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,5</t>
+          <t>0,2; 1,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,27</t>
+          <t>-0,07; 1,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,07</t>
+          <t>-1,12; -0,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,23</t>
+          <t>1,31; 14,01</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 0,78</t>
+          <t>-0,09; 0,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; -0,12</t>
+          <t>-0,95; -0,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,66</t>
+          <t>1,07; 8,1</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 60,76</t>
+          <t>-27,2; 62,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 3,84</t>
+          <t>-59,67; 9,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>8,88; 120,73</t>
+          <t>9,71; 122,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 95,87</t>
+          <t>-4,73; 93,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 9,85</t>
+          <t>-57,02; -0,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>75,58; 1017,38</t>
+          <t>73,35; 907,13</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 58,23</t>
+          <t>-5,35; 61,02</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-51,95; -8,74</t>
+          <t>-52,55; -10,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>61,5; 596,23</t>
+          <t>63,94; 544,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,82</t>
+          <t>-1,4; 3,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,67</t>
+          <t>-0,97; 1,24</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-90,92%</t>
+          <t>-91,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-22,53%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,36; 787,75</t>
+          <t>-100,0; 694,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-92,32; 445,48</t>
+          <t>-95,14; 355,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,14</t>
+          <t>0,2; 4,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,47</t>
+          <t>0,1; 3,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,18</t>
+          <t>-1,05; 1,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,22</t>
+          <t>-0,94; 1,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,81</t>
+          <t>-0,09; 1,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,46</t>
+          <t>-0,89; 0,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,73</t>
+          <t>-0,09; 2,45</t>
         </is>
       </c>
     </row>
@@ -964,37 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>236,77%</t>
+          <t>239,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>258,72%</t>
+          <t>191,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>102,72%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>111,78%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,73%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>165,82%</t>
+          <t>113,13%</t>
         </is>
       </c>
     </row>
@@ -1017,44 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 1215,23</t>
+          <t>-18,69; 1179,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1528,99</t>
+          <t>-14,58; 1005,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 808,54</t>
+          <t>-84,02; 391,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 1035,92</t>
+          <t>-78,54; 396,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 454,27</t>
+          <t>-16,65; 397,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,93; 147,64</t>
+          <t>-77,91; 113,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 620,44</t>
+          <t>-22,09; 476,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,37 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,87</t>
+          <t>-0,69; 1,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,13</t>
+          <t>-0,44; 1,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,84</t>
+          <t>-1,23; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,8</t>
+          <t>-0,64; 1,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,42</t>
+          <t>-0,46; 1,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,67</t>
+          <t>-0,9; 0,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,45</t>
+          <t>-0,41; 1,26</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>116,28%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>53,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>-13,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>49,36%</t>
         </is>
       </c>
     </row>
@@ -1233,44 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,52; 613,78</t>
+          <t>-73,79; 635,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 753,87</t>
+          <t>-42,2; 457,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,21; 314,71</t>
+          <t>-81,73; 205,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 559,35</t>
+          <t>-54,46; 328,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 320,67</t>
+          <t>-38,41; 259,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 172,03</t>
+          <t>-67,14; 133,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 316,02</t>
+          <t>-34,0; 237,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,64</t>
+          <t>-1,15; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,99</t>
+          <t>-1,2; 1,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,86</t>
+          <t>-0,77; 1,44</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>25,1%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 452,88</t>
+          <t>-59,23; 310,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 192,72</t>
+          <t>-42,14; 176,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 178,42</t>
+          <t>-36,82; 138,43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,67</t>
+          <t>-2,01; 2,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,36</t>
+          <t>-0,53; 3,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,57</t>
+          <t>-0,56; 2,55</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>38,97%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 131,96</t>
+          <t>-47,71; 133,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 356,64</t>
+          <t>-18,39; 347,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 147,17</t>
+          <t>-15,83; 146,36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>35,01</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>21,06</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,38</t>
+          <t>-5,71; 0,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -0,64</t>
+          <t>-6,15; -1,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,74</t>
+          <t>-4,22; 1,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,91</t>
+          <t>-0,47; 4,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,23</t>
+          <t>-1,66; 1,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,37; 34,83</t>
+          <t>2,17; 75,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,18</t>
+          <t>-2,18; 1,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,23</t>
+          <t>-3,3; -0,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,13; 25,47</t>
+          <t>0,44; 62,28</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>-58,35%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-65,99%</t>
+          <t>-76,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>101,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-21,47%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>437,22%</t>
+          <t>2159,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>-11,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-43,06%</t>
+          <t>-55,01%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>231,62%</t>
+          <t>702,32%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,46; 58,33</t>
+          <t>-87,97; 32,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-87,61; -18,35</t>
+          <t>-95,22; -19,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 68,91</t>
+          <t>-63,55; 57,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 97,06</t>
+          <t>-30,1; 530,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,3; 72,95</t>
+          <t>-71,68; 282,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>68,1; 1679,95</t>
+          <t>110,9; 22525,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 44,58</t>
+          <t>-57,63; 71,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-66,57; -7,47</t>
+          <t>-81,56; -4,59</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>28,97; 831,42</t>
+          <t>13,1; 3135,4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,19</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,78</t>
+          <t>-1,69; 5,06</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,08</t>
+          <t>-3,9; 1,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,6</t>
+          <t>-1,72; 3,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,23</t>
+          <t>-4,72; 1,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; -0,02</t>
+          <t>-4,51; 1,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,01</t>
+          <t>0,04; 5,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,83</t>
+          <t>-2,39; 1,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; -0,16</t>
+          <t>-3,39; 0,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,1</t>
+          <t>-0,27; 4,29</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-34,42%</t>
+          <t>-39,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>-31,61%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-33,3%</t>
+          <t>-30,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>270,23%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-33,83%</t>
+          <t>-32,87%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>171,41%</t>
+          <t>59,89%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-47,3; 485,34</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-89,78; 204,83</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-48,4; 421,56</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-73,36; 62,71</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-75,47; 63,42</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 206,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-49,39; 81,2</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-68,66; 36,48</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 171,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 0,78</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 0,08</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 1,38</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 1,16</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; -0,06</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 22,78</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 0,82</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; -0,17</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-34,42%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-35,8%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>399,6%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-35,14%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>234,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-27,2; 62,78</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-59,67; 9,78</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 122,96</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 93,27</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>-57,02; -0,27</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>73,35; 907,13</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 61,02</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>-52,55; -10,83</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>63,94; 544,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 105,32</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 84,98</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-59,14; -3,13</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>57,98; 1513,5</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 58,11</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-53,75; -12,07</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>49,15; 910,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,31</t>
+          <t>-0,28; 2,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,48</t>
+          <t>-1,23; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,04</t>
+          <t>-1,49; 0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,29</t>
+          <t>-2,05; 0,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,14</t>
+          <t>-2,17; -0,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,17</t>
+          <t>-1,39; 3,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,82</t>
+          <t>-0,78; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,03</t>
+          <t>-1,42; -0,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,24</t>
+          <t>-1,03; 1,34</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 145,87</t>
+          <t>-100,0; 198,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 694,48</t>
+          <t>-100,0; 791,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,8; 207,0</t>
+          <t>-65,23; 208,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 73,76</t>
+          <t>-100,0; 26,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-95,14; 355,91</t>
+          <t>-96,38; 483,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,81</t>
+          <t>-0,97; 0,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,44</t>
+          <t>-1,21; 0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 4,99</t>
+          <t>0,13; 4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,36</t>
+          <t>0,27; 3,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,07</t>
+          <t>-0,99; 0,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,29</t>
+          <t>-0,96; 1,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,74</t>
+          <t>-0,07; 1,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,39</t>
+          <t>-0,83; 0,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,45</t>
+          <t>-0,05; 2,3</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,06; 315,29</t>
+          <t>-81,03; 358,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 316,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 1179,42</t>
+          <t>-20,36; 1436,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 1005,93</t>
+          <t>1,32; 1247,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,02; 391,99</t>
+          <t>-76,59; 326,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 396,11</t>
+          <t>-81,43; 434,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 397,65</t>
+          <t>-14,89; 351,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 113,46</t>
+          <t>-75,57; 135,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 476,47</t>
+          <t>-12,39; 481,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,38</t>
+          <t>-1,08; 1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,91</t>
+          <t>-1,18; 1,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,94</t>
+          <t>-0,81; 1,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,99</t>
+          <t>-0,55; 2,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,72</t>
+          <t>-1,28; 0,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,5</t>
+          <t>-0,75; 1,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,37</t>
+          <t>-0,39; 1,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,6</t>
+          <t>-0,88; 0,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,26</t>
+          <t>-0,43; 1,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 495,61</t>
+          <t>-76,97; 532,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,42; 456,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 635,26</t>
+          <t>-75,25; 750,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 457,04</t>
+          <t>-53,05; 435,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 205,88</t>
+          <t>-86,62; 206,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 328,26</t>
+          <t>-57,69; 301,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 259,02</t>
+          <t>-33,85; 278,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 133,06</t>
+          <t>-68,13; 139,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 237,74</t>
+          <t>-34,16; 243,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,05</t>
+          <t>-0,31; 3,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,28</t>
+          <t>-0,71; 2,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,94</t>
+          <t>-1,18; 1,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,27</t>
+          <t>-1,37; 2,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,31</t>
+          <t>-2,63; 0,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,86</t>
+          <t>-1,38; 1,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,15</t>
+          <t>-0,3; 1,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,81</t>
+          <t>-1,16; 0,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,44</t>
+          <t>-0,91; 1,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 625,53</t>
+          <t>-37,64; 506,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 394,79</t>
+          <t>-43,19; 393,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 310,42</t>
+          <t>-58,66; 296,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 231,58</t>
+          <t>-52,52; 216,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-84,92; 48,84</t>
+          <t>-85,19; 43,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 176,69</t>
+          <t>-42,6; 165,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 198,77</t>
+          <t>-16,21; 199,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 70,51</t>
+          <t>-56,92; 80,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 138,43</t>
+          <t>-38,95; 121,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,7</t>
+          <t>-3,8; 0,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,61; -0,3</t>
+          <t>-4,33; -0,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,71</t>
+          <t>-1,81; 3,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,66</t>
+          <t>-1,52; 2,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,12</t>
+          <t>-3,37; -0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,26</t>
+          <t>-0,44; 3,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,0</t>
+          <t>-1,84; 1,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,45</t>
+          <t>-3,24; -0,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,55</t>
+          <t>-0,48; 2,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,03; 48,82</t>
+          <t>-80,55; 36,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-91,51; 13,73</t>
+          <t>-93,38; 14,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 133,14</t>
+          <t>-45,0; 133,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 247,54</t>
+          <t>-56,56; 245,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-94,74; 49,83</t>
+          <t>-100,0; 63,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 347,24</t>
+          <t>-16,44; 313,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 59,28</t>
+          <t>-54,1; 77,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -9,55</t>
+          <t>-86,87; -12,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 146,36</t>
+          <t>-14,33; 130,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,35</t>
+          <t>-5,65; 0,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,15; -1,02</t>
+          <t>-6,49; -1,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,32</t>
+          <t>-4,28; 1,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,23</t>
+          <t>-0,49; 4,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,84</t>
+          <t>-1,91; 1,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,17; 75,55</t>
+          <t>2,11; 71,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,51</t>
+          <t>-2,27; 1,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,3; -0,24</t>
+          <t>-3,35; -0,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 62,28</t>
+          <t>0,38; 54,48</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-87,97; 32,05</t>
+          <t>-89,58; 16,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-95,22; -19,9</t>
+          <t>-100,0; -15,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 57,37</t>
+          <t>-67,16; 38,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 530,5</t>
+          <t>-35,53; 554,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-71,68; 282,65</t>
+          <t>-79,94; 224,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>110,9; 22525,59</t>
+          <t>111,88; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 71,76</t>
+          <t>-57,78; 76,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-81,56; -4,59</t>
+          <t>-81,98; -0,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>13,1; 3135,4</t>
+          <t>10,7; 2528,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 5,06</t>
+          <t>-1,7; 5,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,44</t>
+          <t>-3,8; 1,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,84</t>
+          <t>-1,76; 3,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,25</t>
+          <t>-4,37; 1,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,44</t>
+          <t>-4,55; 1,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,04; 5,81</t>
+          <t>-0,16; 5,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,92</t>
+          <t>-2,45; 1,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,87</t>
+          <t>-3,44; 0,88</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,29</t>
+          <t>-0,17; 4,22</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,3; 485,34</t>
+          <t>-54,62; 481,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-89,78; 204,83</t>
+          <t>-90,45; 258,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 421,56</t>
+          <t>-55,58; 372,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 62,71</t>
+          <t>-69,42; 52,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 63,42</t>
+          <t>-72,44; 69,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 206,43</t>
+          <t>-5,05; 206,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 81,2</t>
+          <t>-51,37; 91,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-68,66; 36,48</t>
+          <t>-70,57; 37,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 171,06</t>
+          <t>-6,74; 166,37</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,78</t>
+          <t>-0,52; 0,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,08</t>
+          <t>-1,17; 0,05</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,38</t>
+          <t>-0,06; 1,35</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,16</t>
+          <t>-0,17; 1,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,19; -0,06</t>
+          <t>-1,17; -0,07</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,07; 22,78</t>
+          <t>1,09; 23,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,82</t>
+          <t>-0,11; 0,84</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,98; -0,17</t>
+          <t>-1,0; -0,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,88</t>
+          <t>0,86; 13,82</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 62,78</t>
+          <t>-29,95; 58,24</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 9,78</t>
+          <t>-60,36; 7,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 105,32</t>
+          <t>-3,67; 102,16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 84,98</t>
+          <t>-8,83; 84,94</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-59,14; -3,13</t>
+          <t>-57,67; -3,42</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>57,98; 1513,5</t>
+          <t>58,71; 1450,72</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 58,11</t>
+          <t>-6,28; 57,42</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-53,75; -12,07</t>
+          <t>-54,1; -12,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>49,15; 910,07</t>
+          <t>53,77; 918,72</t>
         </is>
       </c>
     </row>
